--- a/02-DApp/backend/contractscripts/functions/week_dummy_data.xlsx
+++ b/02-DApp/backend/contractscripts/functions/week_dummy_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/henryborska/Desktop/Momint/momint/02-DApp/backend/contractscripts/functions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48FFA0D5-36F9-A140-B5E3-75D3A72D9FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09FCBAB0-5C0B-C446-B08D-22A267F1754C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1280" yWindow="500" windowWidth="21320" windowHeight="16440" xr2:uid="{5A04F3D4-1936-3F4C-845D-C59D945B9F88}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{5A04F3D4-1936-3F4C-845D-C59D945B9F88}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -708,8 +708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{318DD8E2-41F7-4343-9BB5-233A08A43FBA}">
   <dimension ref="A1:Y51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScale="164" workbookViewId="0">
+      <selection activeCell="W24" sqref="W24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
